--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/2_Adıyaman_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/2_Adıyaman_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D81110FE-79C0-4347-8E9E-AAFA5DB3B8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82786BD4-E150-42A6-8A3B-C802111D0E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="698" xr2:uid="{5E76E258-8CFE-4F16-8752-0E2D2E8CA48A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="698" xr2:uid="{CC6C52EB-8DEC-4051-A3C1-6435AA9F8C93}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -950,14 +950,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{08BEB0CD-D7C2-4539-A954-E362D390656D}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{B3734D8C-FA8F-447D-BD75-A5731A1BC7A9}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{AB1BC04A-B59C-4137-9391-BE523E7B0BA4}"/>
-    <cellStyle name="Normal 4" xfId="5" xr:uid="{F17FCA21-6334-410E-9A88-D1F8EC84AB95}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{50459152-032B-40E9-A73B-B0A1487F3478}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{3EB37FAC-93F9-42B1-807D-55EECC143BCA}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{57F40A2D-C5EF-402E-8893-F7A3402683DD}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{2315FCF6-3DC6-47E6-8020-F54ADB41C8CA}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{AACE64CA-7FBE-4C86-B7D8-4FCDF74370AF}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{4F82AA6D-5CCD-4156-828D-4CD6F92BAB9A}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{40DC0AFC-90AE-401D-B85A-8956DF7FE3C4}"/>
+    <cellStyle name="Normal 4" xfId="5" xr:uid="{151FA655-6AEC-4EB2-BE69-761CB0CD6CCD}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{D653B382-8213-4F69-B945-785EEA4DC840}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{9813EB34-5B9E-4EA0-9AEF-1AB3FE317FD9}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{83F2087A-63F5-4897-934A-8360BAC97C19}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{C668DD85-0D2F-4F96-B39C-D4CAB00EC541}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1327,7 +1327,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546104C8-76A6-4865-9DAD-9C4E442EB362}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12096D0B-0BF9-4430-A0DE-14459420CEEE}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2585,18 +2585,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{CE73EE7B-E114-4064-8DA6-46CEAEF480E2}"/>
-    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5D91DA58-2D29-4ABC-A79A-6A2A2DCE995D}"/>
-    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{B176B6FD-84BC-4710-89E4-FBA1CAE6FE54}"/>
-    <hyperlink ref="C6" location="NİSAN!A1" display="NİSAN" xr:uid="{3DA92463-108B-410C-94D6-4A61B9672161}"/>
-    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{A14CCDD5-B001-48D1-AB68-D9AF59AD5B58}"/>
-    <hyperlink ref="E6" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F79641EC-8E6A-4153-8C7B-DB3B5A6C7A86}"/>
-    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C84A29FB-52F8-457B-B637-67F79547823F}"/>
-    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6283A5BA-2B06-4845-8089-C3E2C6597E35}"/>
-    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{37FAD42C-1FAA-4146-B92F-602DDC8425B7}"/>
-    <hyperlink ref="C8" location="'EKİM '!A1" display="EKİM" xr:uid="{66836799-DC5D-459B-8EA6-2D9814A780FE}"/>
-    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{84BAF805-08A8-4707-8163-E9F77FA866C1}"/>
-    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{924A02F7-22CC-463A-B789-277333D4F303}"/>
+    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{C0340E41-CE76-4EB2-9F3A-970D5BAFF142}"/>
+    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7A5A04D0-EAF5-47CB-9843-992580B3B291}"/>
+    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{9F8D2DDB-D1F9-4F94-B23B-3B2B91CCB0C1}"/>
+    <hyperlink ref="C6" location="NİSAN!A1" display="NİSAN" xr:uid="{68B30227-389C-485E-B80E-75660F93277A}"/>
+    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{4A022B69-A31E-45E7-A103-1577F376F270}"/>
+    <hyperlink ref="E6" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4A84288B-4C4F-465E-947E-2BB24B7DE93F}"/>
+    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{62367D7E-11CA-402F-950D-443A1A655701}"/>
+    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{003A6627-1909-4CF8-9D07-60B525236618}"/>
+    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FC7A8241-F996-4CC6-9AFC-700A01458FBB}"/>
+    <hyperlink ref="C8" location="'EKİM '!A1" display="EKİM" xr:uid="{FBBF5D10-F4FA-4D36-B59E-F7EC855F72DE}"/>
+    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{7D74F777-B308-44D3-B941-DF40EBE89281}"/>
+    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{26046CE6-2F06-424B-807C-90A81247AA34}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2609,7 +2609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91820FAF-C5E2-49C1-9734-B25EB24E0582}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4011CB-1092-4ADD-9553-73E53F843F34}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -3904,18 +3904,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{AD62E4E3-88F0-4887-8D66-4DF68A9528D7}"/>
-    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{049B7FE7-A0B6-427A-8E2C-41F57130E042}"/>
-    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{66315FD6-8C4C-44AF-A1E5-BF8BBB2B23D9}"/>
-    <hyperlink ref="C6" location="NİSAN!A1" display="NİSAN" xr:uid="{D2DFD4F0-02B9-477F-8356-AF7B81E0D54C}"/>
-    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{C0209D04-FF8E-4458-A599-0FF659B7BC98}"/>
-    <hyperlink ref="E6" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{540F7120-FCB5-4595-A614-D75635E57DB5}"/>
-    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E294C3B3-01E2-4681-A7C3-673F2278733F}"/>
-    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CB370161-00EC-4B06-9DA1-DD3EAD113FDE}"/>
-    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C97BF341-FD3F-47F5-8393-0DB28333DCF7}"/>
-    <hyperlink ref="C8" location="'EKİM '!A1" display="EKİM" xr:uid="{F21C4431-826A-40F0-832F-63EB1B6DB8A9}"/>
-    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{90B7BCD5-2E5F-4E7F-AB24-DE3BF2B22F95}"/>
-    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{9F24A780-F054-41FF-B59F-B5198FCCF203}"/>
+    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{BAC2FD49-DCE4-4D8E-892D-1FACD3E0901C}"/>
+    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{799D5C25-D2E7-4146-A06C-BF0E5400B4BC}"/>
+    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{D3F7FCE0-9AD2-45B1-9DE4-94F022137AC1}"/>
+    <hyperlink ref="C6" location="NİSAN!A1" display="NİSAN" xr:uid="{48A6288D-796C-4B9F-8276-DAA978A8C85A}"/>
+    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{72B61F13-A43F-4CBA-BE16-FBB2719A5193}"/>
+    <hyperlink ref="E6" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4583C26C-0FBE-45CA-A90E-70E53D20838D}"/>
+    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7326F8BB-A576-444B-B4CE-6BB25395DDEA}"/>
+    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2C30B196-1DA9-4223-9CD3-76FB48414C5B}"/>
+    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6C0F0B9B-AE95-4F6C-90E9-443ABF297372}"/>
+    <hyperlink ref="C8" location="'EKİM '!A1" display="EKİM" xr:uid="{865902A5-B97F-4518-954D-ECBB7AF940B3}"/>
+    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{4163950E-DE9C-423A-8C3D-192EEDEBCCFB}"/>
+    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{B2EB8359-3FE2-48C7-821A-E6641F3203E6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3928,7 +3928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E89EC2A3-44EC-423E-A7A1-B7C8F4D5B0EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559538D2-0B39-4DAE-BF2A-D491D0DBCCA6}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -5223,18 +5223,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{8B7CF27C-6A57-447C-89A6-E0CB6AC06A45}"/>
-    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{04AE6ACF-D566-430B-8AF5-F2288FFC3847}"/>
-    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{C63DAD98-757B-415F-B2FC-C2B6C2E855CA}"/>
-    <hyperlink ref="C6" location="NİSAN!A1" display="NİSAN" xr:uid="{B02696E2-17C4-4C38-9774-E8CA9C560A10}"/>
-    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{C1534AEE-E6A9-4561-8C84-B5AC72CB2EAB}"/>
-    <hyperlink ref="E6" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{95CFCE31-293E-4CF8-96E9-3BD394A670C6}"/>
-    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{97C3ECF6-1AC6-4299-A2EA-096A78FB49C1}"/>
-    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F90C1DBD-6B62-432F-9527-BAB581DBCD94}"/>
-    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{127FEBBF-0141-45DB-907A-4495A05C6306}"/>
-    <hyperlink ref="C8" location="'EKİM '!A1" display="EKİM" xr:uid="{9E9290FC-1AE4-41A8-A9D2-9675E7993EF5}"/>
-    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{DE4E0FFC-BAD4-437B-923E-8516122883EF}"/>
-    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{A294E911-E17C-40F5-85CA-097DC1D8439C}"/>
+    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{75075C68-0755-4B0A-B74B-4ECC49EEF0F7}"/>
+    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{61F6B142-18F1-4534-AE84-84699250AD10}"/>
+    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{DBE6E31B-0C28-480A-AC18-285502175289}"/>
+    <hyperlink ref="C6" location="NİSAN!A1" display="NİSAN" xr:uid="{FA6F0EBB-E527-46D2-ABB2-4EDE27004493}"/>
+    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{80CB296D-8C40-4726-ACB4-A95A8261377A}"/>
+    <hyperlink ref="E6" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C8917CF7-BBF9-4174-89CF-F49B3827C41B}"/>
+    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C1D54D97-CE13-4DF6-8138-D1D64BB8053B}"/>
+    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F62494C6-4305-42E8-B3C4-5328B623FF9B}"/>
+    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C57742E2-04B2-4B07-8F5B-73C45F649B80}"/>
+    <hyperlink ref="C8" location="'EKİM '!A1" display="EKİM" xr:uid="{947AB6BB-9DFD-46DE-9861-4E25997E2E78}"/>
+    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{3BB1560D-E3BA-45EC-88F4-CC922F03A8EC}"/>
+    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{78C36CE9-C109-4759-BE2A-1DBBC08EB53B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5247,7 +5247,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B73030-9D8F-4341-90AC-03F3DC46FB0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0FBF6BF-1BE8-430A-A066-78384D216B9D}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -6528,18 +6528,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{4053C8CE-95E7-482D-A8FA-C52F7E5FCDA7}"/>
-    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CA9305F6-F2D1-401F-B480-D1C046111A74}"/>
-    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{E099AF05-9514-4952-BF14-934FA5A95C13}"/>
-    <hyperlink ref="C6" location="NİSAN!A1" display="NİSAN" xr:uid="{BBB79EC2-CAB7-4D32-B14A-A4A9CD20B92C}"/>
-    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{3795202C-0EF9-454F-AED2-5061DB2970F0}"/>
-    <hyperlink ref="E6" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{380AD15C-2459-4176-BAC9-7AC22C9D3573}"/>
-    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5EEF37DD-B741-4C9C-944E-AFB098F8AEDF}"/>
-    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0024E6C0-FBEC-44A7-9299-E0E2577EECE4}"/>
-    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BF5878DD-CDD8-4ED3-ADF3-E11C90ADA247}"/>
-    <hyperlink ref="C8" location="'EKİM '!A1" display="EKİM" xr:uid="{5DEC6D62-B736-429C-9D2C-B32C6ACF73EA}"/>
-    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{B2925162-05A6-45FC-B9AB-7A116A46EAAD}"/>
-    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{8635BAD2-FB09-48E3-9269-B77FE64A52B4}"/>
+    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{3EF390C1-4AE3-4A82-85DF-093F3A1B60D6}"/>
+    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{34AA24DA-3F24-4EC4-9C09-9615D7A9500A}"/>
+    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{0D997546-05E0-498A-9ED7-D8A1E90C683E}"/>
+    <hyperlink ref="C6" location="NİSAN!A1" display="NİSAN" xr:uid="{0374334D-9ED4-40E5-860C-060D9918913C}"/>
+    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{C9FC2433-3285-43AD-A713-66F25E7EB848}"/>
+    <hyperlink ref="E6" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6EB7034B-4065-45B0-BD85-ADBE857EBE0B}"/>
+    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5756A566-B463-41F6-AD00-6E9FE09545CA}"/>
+    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A57E15F1-C265-41A5-B92D-CD9E6F5676C4}"/>
+    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6B3905F9-0B37-4C6D-997F-F7A66552C69C}"/>
+    <hyperlink ref="C8" location="'EKİM '!A1" display="EKİM" xr:uid="{5595C132-4A36-424D-8B42-EB4F1D9DCF4D}"/>
+    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{53CBA9D1-D80A-4150-9A9E-BE7A0767E179}"/>
+    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{1B431543-476F-4650-804A-5E664332559D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6552,7 +6552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5EC1C08-01A2-4DF9-A732-C418BB500E91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF1DC56-0789-436F-99A6-3B4B67AC8D99}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7810,18 +7810,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{8F4744F8-21AF-4391-9A1B-63FF4C32611F}"/>
-    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B979E727-725E-40BB-AF64-832DFD8076A1}"/>
-    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{607F5C29-126B-4118-93F7-FD708BD43030}"/>
-    <hyperlink ref="C6" location="NİSAN!A1" display="NİSAN" xr:uid="{5F5499F8-48FF-4BCD-8736-71DDDE4F9AC9}"/>
-    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{4EF2AA52-9322-4A5A-AE49-3DCC746C50BB}"/>
-    <hyperlink ref="E6" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{08685460-AB8E-42CE-A52A-DF068DB300A3}"/>
-    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{737CFDF7-65D6-4DC4-96EA-6038BD993FAC}"/>
-    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A12D218C-FEF1-4BFC-8C5E-D6CA92B4B6EE}"/>
-    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{29C8218F-A6A9-4320-ABEC-23635F82627E}"/>
-    <hyperlink ref="C8" location="'EKİM '!A1" display="EKİM" xr:uid="{D4CB3C38-FDE0-4CD9-B815-793566DB5E16}"/>
-    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{33A7877A-4ECC-4C08-8404-5E25462916F4}"/>
-    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{0D9EDE8C-3A2D-4663-ADF1-E996487BFE48}"/>
+    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{A9CE4420-A2E9-4E5D-91DB-ED38A6058EAB}"/>
+    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E26DD2F3-CACF-48FB-8595-EEC7B4A92204}"/>
+    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{B307DF84-2640-4FFF-BC52-C80692B22DB6}"/>
+    <hyperlink ref="C6" location="NİSAN!A1" display="NİSAN" xr:uid="{55D324DC-C47A-4E4F-919F-9740CFEB16BD}"/>
+    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{98ACD56A-405D-496F-9CBB-28A341164EEC}"/>
+    <hyperlink ref="E6" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D2069DD3-CF8B-4626-8CCD-23AB1B28928A}"/>
+    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F85E745A-E0F6-4AA2-9455-CAA2FD147A24}"/>
+    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{949FD49A-F929-4B7D-BE77-D9D9093AB426}"/>
+    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{840DB260-CABA-4625-90F7-B1837D9A34D3}"/>
+    <hyperlink ref="C8" location="'EKİM '!A1" display="EKİM" xr:uid="{C0F71417-B306-484F-BD19-7D1F680E344A}"/>
+    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{DCC06B56-451E-41AC-B467-55537BCF569B}"/>
+    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{5B90ADB1-23EE-4B03-97D0-E0F42262209E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7834,7 +7834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95999D11-83E7-4335-B1F7-BDCC5A309D62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC39370-54B0-4D30-A158-03CB1300C73F}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9092,18 +9092,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{1F87882A-55F9-43D8-86A7-E23A9DEB62DD}"/>
-    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{06ABC7D3-4124-4853-B89F-66EF128CC9EA}"/>
-    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{7C544F86-2EF4-4B90-95AD-DFABEC496089}"/>
-    <hyperlink ref="C6" location="NİSAN!A1" display="NİSAN" xr:uid="{E9467B46-D9AF-4E56-8999-7B6E17F1D7D1}"/>
-    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{9E0D2A57-AA5C-49B7-AB3A-85EA66C109D4}"/>
-    <hyperlink ref="E6" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6CEBFA09-D234-4FFD-AD23-B7043981D357}"/>
-    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{58DDB983-5598-441C-837B-E80F1E677C2A}"/>
-    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FE13E84C-42ED-4B6D-AF84-EF8493828235}"/>
-    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{387F6115-79B2-4349-B1EE-0C4A85C18107}"/>
-    <hyperlink ref="C8" location="'EKİM '!A1" display="EKİM" xr:uid="{A5F57230-BD31-4905-872B-3DD53374F205}"/>
-    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{B4E23EAA-2C7F-4717-BBC7-C9F14D7596A6}"/>
-    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{02F89706-7DB0-4C5A-90AA-20A9DFEADDCF}"/>
+    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{B25A19F8-ADAF-45BB-B63E-1BAFFC94CE3E}"/>
+    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{661F4905-A277-45AE-943E-BD805E25567A}"/>
+    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{3A4EAB20-F423-4F85-86B4-D8FB49E4304A}"/>
+    <hyperlink ref="C6" location="NİSAN!A1" display="NİSAN" xr:uid="{135BEE18-0AB1-4299-8184-08393B6998E7}"/>
+    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{C6D14957-B479-4EFA-972E-0073BF97347C}"/>
+    <hyperlink ref="E6" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{CD429E0A-E14E-4BE1-85F5-1BFB00F2AC37}"/>
+    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AAB29AE6-9F4E-4BFB-BA89-21310C0058A8}"/>
+    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B0C9F06C-9DB8-48BF-8667-B9693C624EDD}"/>
+    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A8BD6728-21C5-4F77-9D56-8FD28AE21460}"/>
+    <hyperlink ref="C8" location="'EKİM '!A1" display="EKİM" xr:uid="{A17A26A7-D1E1-4739-8B24-EB2F58890B39}"/>
+    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{4EAFD6DA-AC65-47EB-BBCC-9AFFC8F734C3}"/>
+    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{57283AE3-2396-4477-B9B1-6623A27B64C9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9116,7 +9116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34516FD2-62C0-4C48-9CF8-659EBD28953B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5757E4C2-6CB5-47AA-8F50-1AE30C118068}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10374,18 +10374,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{8E7ADB24-ACA3-4CB9-900E-CC2738F4D490}"/>
-    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{394C2405-A5ED-4B30-B9E8-9684D55443E8}"/>
-    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{E310305E-BB1B-4D9A-9DE2-202C14B34ED5}"/>
-    <hyperlink ref="C6" location="NİSAN!A1" display="NİSAN" xr:uid="{48658129-EB3A-459F-BAB5-76D78DE47257}"/>
-    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{63217538-9C7A-4979-AC60-3F91C77654F0}"/>
-    <hyperlink ref="E6" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{111C6061-1F95-46EC-81CD-1983A975AE1B}"/>
-    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{30C38127-C834-4E93-AB9E-2919EDCA0654}"/>
-    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EE6C6196-DCE7-4BCD-98BB-AC605FCECD46}"/>
-    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1B63CB14-5AB3-4E7B-8DCD-C741085066E1}"/>
-    <hyperlink ref="C8" location="'EKİM '!A1" display="EKİM" xr:uid="{03EA022B-7C09-405C-BE97-E3B608F3F986}"/>
-    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{8127FD97-5374-457C-9D90-1199CA0C843F}"/>
-    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{1849AF29-E382-4DD5-A91A-6E8562FDA9A2}"/>
+    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{206D37AD-F3AD-4C1A-AC7C-3B908F94FF45}"/>
+    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{34F19BAE-8133-46D5-95A7-B72843666C61}"/>
+    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{F0D1FB4A-9340-4A05-A428-4A5808B52FA8}"/>
+    <hyperlink ref="C6" location="NİSAN!A1" display="NİSAN" xr:uid="{8DD18682-BB9C-4B37-BEC9-80075E746F3E}"/>
+    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{BF53152F-9813-4ABE-A52E-6DA50424FCC8}"/>
+    <hyperlink ref="E6" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4761F8C7-ABDE-4BC1-AF97-DA48FF88DD64}"/>
+    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1073FD97-1AEF-4763-BBED-8CE463203E29}"/>
+    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4B5D971A-9B2B-4E32-A7F2-D1F2AE78F056}"/>
+    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{363F8A38-3160-46D2-AF9D-4BA79FE4BFF5}"/>
+    <hyperlink ref="C8" location="'EKİM '!A1" display="EKİM" xr:uid="{2BD118E1-4879-4D2A-A4B3-18B76028764C}"/>
+    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{33159892-ADF0-4C85-8C3B-6F02AB756D00}"/>
+    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{3E8D2D69-2544-47CD-9D5A-3CD8F086060D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10398,7 +10398,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC307E51-AF38-4EB5-AF93-BDAB325BBB32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A8CA6A8-F02C-4A61-85B1-B9E456BB416A}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11656,18 +11656,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{A1F478B5-F975-4746-8D12-E6DC7AB33BB5}"/>
-    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F2CB3A85-9DD1-4098-BD39-9597EAE2C03C}"/>
-    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{43136532-4298-4AA7-9BCA-42E62D9BFDFB}"/>
-    <hyperlink ref="C6" location="NİSAN!A1" display="NİSAN" xr:uid="{5CE27BEB-284B-4C50-BC7D-B33CE66448E0}"/>
-    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{C94A6621-9462-4A27-8F21-B6E8B392C093}"/>
-    <hyperlink ref="E6" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C8BB181E-7767-4A80-BF75-C6C1F513CEA0}"/>
-    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3E661368-0155-419F-B431-CAA4879345BD}"/>
-    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{70F483E2-3A7E-4D7D-A97E-4225D006497A}"/>
-    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{309DD651-AF3D-4066-A91E-2BBE399290D9}"/>
-    <hyperlink ref="C8" location="'EKİM '!A1" display="EKİM" xr:uid="{906DC879-A861-4049-B2F0-AAF737E96202}"/>
-    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{CD3D0E7C-64BC-440B-A0CB-DE2C33A6A717}"/>
-    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{F81D54D5-77CE-4618-B301-92B2057665E1}"/>
+    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{96F1CA35-04E8-42F4-B18C-6038728611AA}"/>
+    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{90C74AE3-C5D3-4C28-A4F9-4A5F4A6C74A5}"/>
+    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{BCCA2608-AF6D-4723-B6FC-4F5FEB98F1F5}"/>
+    <hyperlink ref="C6" location="NİSAN!A1" display="NİSAN" xr:uid="{1C08A61A-F3BC-4DDA-AE80-47D32017849C}"/>
+    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{626077AB-BEEA-4D28-AFAE-758C29BBF6E8}"/>
+    <hyperlink ref="E6" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{08BA4B78-FBDC-40DC-B8C0-154A698CEFB5}"/>
+    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C37F0863-1CD3-4324-BEAE-9422AB4C4108}"/>
+    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D7B47ADB-9477-496D-8315-7BAF60A7B4DA}"/>
+    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2C41DFBF-81C0-435A-B42E-2E72963293DC}"/>
+    <hyperlink ref="C8" location="'EKİM '!A1" display="EKİM" xr:uid="{EE64260E-E118-40B3-9EC1-61D3382F985C}"/>
+    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{D96D80EB-3A90-4248-A6EE-706146677B7C}"/>
+    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{265C6BFF-539B-4BDB-A107-15B19F4D68F2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11680,7 +11680,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20B8E255-A7FD-4414-BC54-40F17ED0A9F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388870E8-BF89-4EC9-9B20-8DA8D91DD10C}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -12931,18 +12931,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{0E0869C0-096E-4BDB-8608-925079D725CE}"/>
-    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9AD3125D-DC1D-4408-A70A-393A192D7865}"/>
-    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{CF452C9B-74C7-48C8-8100-72011EFE2A22}"/>
-    <hyperlink ref="C6" location="NİSAN!A1" display="NİSAN" xr:uid="{C65AA8D1-0B01-4F24-B04E-F7795A89C4DF}"/>
-    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{DB21162E-477E-4043-948D-408DA8A1EBB6}"/>
-    <hyperlink ref="E6" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7AFEE630-960E-4920-86B8-C02DBFE138E2}"/>
-    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8E45B2C6-C81A-4E4C-B0CB-93500B8131AE}"/>
-    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F9CE96EE-1EB2-487B-9665-9F6E9540E29C}"/>
-    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{830DA963-FDA6-4F9C-9213-04FC56CA4EDB}"/>
-    <hyperlink ref="C8" location="'EKİM '!A1" display="EKİM" xr:uid="{EDFFD3A1-2AE1-4225-9CB0-7DC3C4EE3D21}"/>
-    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{6E9BE001-3924-47B1-9741-8EDF7C8F0E29}"/>
-    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{8BD371C8-0043-4EF2-89E3-FA5192E583FE}"/>
+    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{B8C980AA-9C0E-46D8-9692-9AFE4E261CF3}"/>
+    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{057F8F18-D4EE-426C-881C-D4290308289F}"/>
+    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{83604363-A04F-49B2-B3E2-DB83254DC133}"/>
+    <hyperlink ref="C6" location="NİSAN!A1" display="NİSAN" xr:uid="{1839EA55-AC57-4F70-A917-947C7873E97C}"/>
+    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{96F8632F-A8F5-4CDE-834F-3D9F9202F089}"/>
+    <hyperlink ref="E6" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4C72A7E2-4767-4124-889A-1BA21D63618A}"/>
+    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5D44929C-1CAF-496C-A7F5-C4609BD3AAD8}"/>
+    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DE68B50C-8072-4FB1-83DF-22895B89CA75}"/>
+    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E2845259-B7F6-4D6F-9F81-59247F911589}"/>
+    <hyperlink ref="C8" location="'EKİM '!A1" display="EKİM" xr:uid="{85BB6B59-F253-4219-BA3A-981B831AC511}"/>
+    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{58B53C2B-B1D4-49C2-B9DA-7CB55520DF56}"/>
+    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{8A7E6256-1436-49FE-94D4-D3893197E2FB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12955,7 +12955,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A076D87A-8F4C-42E7-8112-8D59FE8F9F16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A5081F-F7A3-4E95-A3F8-CC677967D212}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -14258,18 +14258,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{D6265C6A-2145-445A-B3E1-BED892685816}"/>
-    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2768CF7E-0F0D-46AF-85A0-C6B92B760DC5}"/>
-    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{4629F3CC-9D79-41F0-87AC-47FAC02313A8}"/>
-    <hyperlink ref="C6" location="NİSAN!A1" display="NİSAN" xr:uid="{31E61386-AE39-4080-88DA-7A9805197366}"/>
-    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{D1C6C0D1-CBF5-4A6D-BB5C-3821FC63FD19}"/>
-    <hyperlink ref="E6" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{318D8070-4008-4205-B027-57CD5051501C}"/>
-    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B938C72A-F3FA-41A2-9AB8-ECB09C10281F}"/>
-    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{18C1C0D4-8E31-49A5-B8BA-2ABBD0872AF1}"/>
-    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D740992E-2367-4692-B2AA-7CED47E44261}"/>
-    <hyperlink ref="C8" location="'EKİM '!A1" display="EKİM" xr:uid="{91AE8740-A191-4442-AC42-6CFD97CAA0F6}"/>
-    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{3D6FFFDC-D119-4B64-B3E8-71225896EE4A}"/>
-    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{08AD2331-2482-496D-A3C8-E716B699B4A9}"/>
+    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{72FAF00E-D20A-4EFF-A88D-57640A3CBE01}"/>
+    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{900D37B5-F7A2-4937-A8DA-0BAA1E462707}"/>
+    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{8E258346-4C11-42D5-95AB-6A146837DB65}"/>
+    <hyperlink ref="C6" location="NİSAN!A1" display="NİSAN" xr:uid="{9887435B-72AF-44D0-ADB9-C0C089907375}"/>
+    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{CACBFA80-A569-48D9-A253-3D7EC3B94CAC}"/>
+    <hyperlink ref="E6" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{165C4C1A-C45B-4382-B357-B967FD745797}"/>
+    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{80A52348-FCB1-4C35-8266-90DD151AF7E5}"/>
+    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5145C84B-8E36-408E-8594-223221B48472}"/>
+    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{139E86F7-BF8F-4E35-84F7-B2FD8976EE45}"/>
+    <hyperlink ref="C8" location="'EKİM '!A1" display="EKİM" xr:uid="{0885FFDA-7100-4B1E-B1E6-B8234E3D0A7A}"/>
+    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{AC501E92-E916-4F77-B07C-E861CFECC012}"/>
+    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{492B5E88-BBF0-45CC-A315-BCE906D27985}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14282,7 +14282,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{335A544E-5542-4C30-8973-C60A32A47810}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80895F79-957A-4D8B-B90C-B273E088564E}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -15585,18 +15585,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{7261213A-5983-4587-B527-E71D81B76694}"/>
-    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{87085D59-C713-4CF0-9703-82B00A86ED9D}"/>
-    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{F8883C8A-8536-48A5-AB86-833B92038EFC}"/>
-    <hyperlink ref="C6" location="NİSAN!A1" display="NİSAN" xr:uid="{EB4ED1E4-6C49-41D6-A0D3-44AE4363CD93}"/>
-    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{A20A7E74-FC6E-461D-AAEF-CDC4F0883EBD}"/>
-    <hyperlink ref="E6" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{23B40B77-3B71-44E9-82AF-9A156CFF4161}"/>
-    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6ABE799D-0F17-4F59-BED0-3C200FA4F31F}"/>
-    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{51077365-5F6B-4774-ABCD-7B615A71E4FB}"/>
-    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{510F73D7-AEAC-4705-905D-C88B18219348}"/>
-    <hyperlink ref="C8" location="'EKİM '!A1" display="EKİM" xr:uid="{E0F595F7-4A27-47FE-81C9-C44E3D0F11C7}"/>
-    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{0B250CF6-2F97-42BE-9D13-90D0E26252FD}"/>
-    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{98D0B887-84F3-42CB-AC9C-8E6918126D0F}"/>
+    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{992D8976-D9DC-43E7-8FD9-216DA78DE066}"/>
+    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{66A073B1-4803-4A3B-A305-0B13D13A7325}"/>
+    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{0432445E-5540-48DC-8839-BD342CF4C6DD}"/>
+    <hyperlink ref="C6" location="NİSAN!A1" display="NİSAN" xr:uid="{299FEDEA-4375-4C38-A6BC-AAB76DD586E5}"/>
+    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{C7DCD74B-2B08-442D-BBDE-D354EED18939}"/>
+    <hyperlink ref="E6" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E956D9E2-4901-476A-9C03-7DF13EFF2736}"/>
+    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F1B8EBE9-706F-4B58-A822-8660341A6088}"/>
+    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EC25C14E-C384-4AD7-ADD0-AF0F75BC1AFA}"/>
+    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3754871F-7760-4E95-87E4-534E97495045}"/>
+    <hyperlink ref="C8" location="'EKİM '!A1" display="EKİM" xr:uid="{348BCA15-F2D9-4095-A9C0-B50DD79C795A}"/>
+    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{35EFBD75-2CFD-44A9-8D36-9F8A1BD6DF6D}"/>
+    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{A69B3C8F-B201-4D65-96B5-2C14F5BA3057}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15609,7 +15609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C9D6718-F44D-4072-900A-9A727C436C55}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39341210-77A2-4139-AA41-75B9FB1D3D71}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -16912,18 +16912,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{744BD054-A427-4D0E-89BA-8040E3A9914D}"/>
-    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7796EE56-A206-48C6-856D-F735B9D5816B}"/>
-    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{DCDF1D00-8E54-42DD-BB4D-E8D1E53B6A05}"/>
-    <hyperlink ref="C6" location="NİSAN!A1" display="NİSAN" xr:uid="{EF64C8BD-FB9D-429B-9FED-7DDB10511F7C}"/>
-    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{4669FC08-E3C6-4375-AB93-01BD320E0F8E}"/>
-    <hyperlink ref="E6" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5FDC3CF1-7D10-4F5E-A143-842752D50358}"/>
-    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{22178416-13E7-4B12-93D3-F9A005355424}"/>
-    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0D6E17C0-28C0-4076-B8AD-56FF873E20A6}"/>
-    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7977865D-6718-4DFC-8602-FB2EEA0DA776}"/>
-    <hyperlink ref="C8" location="'EKİM '!A1" display="EKİM" xr:uid="{5CDBFC95-F7D9-4DAF-8C1D-2C3DA78769DF}"/>
-    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{F0BC2992-E5C2-4C11-9025-40330AEE0E79}"/>
-    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{B8537DCE-7382-4FB2-8C8A-443EB9A6D316}"/>
+    <hyperlink ref="C5" location="OCAK!A1" display="OCAK" xr:uid="{37A43363-B3D4-46F7-AF81-230FCEF9A84B}"/>
+    <hyperlink ref="D5" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D7169A10-361C-434F-A68B-B2C894B931DB}"/>
+    <hyperlink ref="E5" location="MART!A1" display="MART" xr:uid="{764A3C96-5B44-416F-B88E-24BC42B12232}"/>
+    <hyperlink ref="C6" location="NİSAN!A1" display="NİSAN" xr:uid="{8087C123-E7B9-4C14-A4CE-AF7A14479176}"/>
+    <hyperlink ref="D6" location="MAYIS!A1" display="MAYIS" xr:uid="{3F922C86-C190-4D4F-9511-B4CDF6B2EB6A}"/>
+    <hyperlink ref="E6" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1E1A6342-2FBF-45EE-B1CB-B8CA7144DE55}"/>
+    <hyperlink ref="C7" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AB6128FB-AB81-409E-9DB0-B569FE74AAE8}"/>
+    <hyperlink ref="D7" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{01631C50-52A2-4274-BD32-8BA0ED98CC84}"/>
+    <hyperlink ref="E7" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CC02EDBD-AE1A-4538-87FA-57F8D65C909C}"/>
+    <hyperlink ref="C8" location="'EKİM '!A1" display="EKİM" xr:uid="{DD8038CB-75DC-4F4C-9566-C1C1947B76BF}"/>
+    <hyperlink ref="D8" location="KASIM!A1" display="KASIM" xr:uid="{CCCAA0E6-ECDD-426C-B07B-6624CB48A0D2}"/>
+    <hyperlink ref="E8" location="ARALIK!A1" display="ARALIK" xr:uid="{976936F9-FBE6-4BD4-AB3B-890368DEFA34}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
